--- a/Docs/Convertido/RCP150430US4 - 2020-07.xlsx
+++ b/Docs/Convertido/RCP150430US4 - 2020-07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCORU\Documents\Visual Studio 2019\Proyectos\vb.EstadosCuentaToExcel\Docs\Convertido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A369FB5-A694-4CFB-90D0-3019E02BAF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E590F750-28F0-4ECD-92CE-C5CD8EBA1A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="75" windowWidth="20445" windowHeight="11025" xr2:uid="{0E70FF24-D0AC-4885-B8F4-373CB4F2315A}"/>
+    <workbookView xWindow="60" yWindow="75" windowWidth="20445" windowHeight="11025" xr2:uid="{4A5EF912-D718-4116-9775-1054DDC38CB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,###,##0.00"/>
+    <numFmt numFmtId="164" formatCode="###,###,###,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -221,7 +221,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,###,##0.00"/>
+      <numFmt numFmtId="164" formatCode="###,###,###,##0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -241,19 +241,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,###,##0.00"/>
+      <numFmt numFmtId="164" formatCode="###,###,###,##0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,###,##0.00"/>
+      <numFmt numFmtId="164" formatCode="###,###,###,##0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,###,##0.00"/>
+      <numFmt numFmtId="164" formatCode="###,###,###,##0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,###,##0.00"/>
+      <numFmt numFmtId="164" formatCode="###,###,###,##0.00"/>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -278,14 +278,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA2E2F9F-196F-43DA-8DB6-D09A5E3AAE89}" name="Tabla1" displayName="Tabla1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E18" xr:uid="{9EF6FB0D-073B-4904-9F9D-A561B7772353}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DE95C79-97EB-4A23-A699-C51F9B71336A}" name="Tabla1" displayName="Tabla1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:E18" xr:uid="{896D5833-227E-4A58-BD3E-E8638378D8ED}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9E9C7814-D292-498C-814A-EA266F875156}" name="Fecha" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{D7E12C69-298B-4E0C-8BA4-D8DA728D481D}" name="Concepto" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{57E78B00-2305-42CB-9E27-88CABCE0DE9A}" name="Retiros" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{137DD4CD-BA41-4DD6-9207-F8A0249CCD33}" name="Depósitos" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{755936E0-C02E-4C77-B78A-76164CD987E1}" name="Saldo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DE34DDB8-07F4-4A8C-B054-013C4DF1E2BF}" name="Fecha" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A1F8883F-951A-4F83-A580-933F497C9D20}" name="Concepto" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{79A4D36E-8F2B-4155-84EB-476BECCE5945}" name="Retiros" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BCE0FB10-7108-4A70-B783-56EF7B9AE426}" name="Depósitos" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5EE5609F-A03F-4DB2-AA2A-28D0B7AE5FA6}" name="Saldo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B56E68-4B71-49E5-AC14-06E52815AE8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8D775-AAE7-4EF0-90D9-D97BBCC4F4BF}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
